--- a/src/main/resources/niklas-simulation.xlsx
+++ b/src/main/resources/niklas-simulation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blumenroth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blumenroth\ideaProjects\Masterarbeit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75684C0-8B33-4C44-9251-FB3C44C04D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C866DC0D-200D-4E11-9794-74DD1BC416F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>h = 0</t>
   </si>
@@ -65,12 +65,36 @@
   <si>
     <t>SAW [1,10]</t>
   </si>
+  <si>
+    <t>IDEAL 3x5x5</t>
+  </si>
+  <si>
+    <t>FUZZY</t>
+  </si>
+  <si>
+    <t>LEX</t>
+  </si>
+  <si>
+    <t>Pathlength</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Fuzzy SAW</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-407]General"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +125,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -125,19 +162,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{9EFEBFAC-DF47-48CE-AC6C-D5C73741F5C9}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,6 +192,3179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Fuzzy SAW Pfadlängen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> 3x5x5</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$186:$D$207</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B25-4BE0-9823-86C359850A15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407596808"/>
+        <c:axId val="407597528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407596808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Pfadlängen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407597528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407597528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-407]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407596808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Lex Pfadlängen EO 3x5x5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$186:$H$191</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD42-4578-A6F7-1D6B9C98A7A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="538918504"/>
+        <c:axId val="538914904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="538918504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pfadlängen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538914904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538914904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-407]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538918504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfadlängen EO 3x5x5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fuzzy SAW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$185:$D$207</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F60A-4783-B170-F05395FDA863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$185:$E$207</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F60A-4783-B170-F05395FDA863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="417597784"/>
+        <c:axId val="417596704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="417597784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Pfadlängen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417596704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417596704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417597784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>786375</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>81203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470799</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>40665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25743437-E04D-0F71-C612-427EB9672B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>536222</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>74789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220646</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>34251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121720F1-3BF5-3F2D-CDE3-743EC6D623A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>792788</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>126101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477212</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>85564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D811B14-8980-2177-163F-DF506D1146A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2006E7C-E324-AB43-BD3F-EDC18B652AA2}">
-  <dimension ref="A1:Q178"/>
+  <dimension ref="A1:Q212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -464,25 +3678,25 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1738,25 +4952,25 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -3027,25 +6241,25 @@
       <c r="J88" s="1"/>
     </row>
     <row r="90" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -3986,25 +7200,25 @@
       <c r="J131" s="1"/>
     </row>
     <row r="134" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
@@ -4046,12 +7260,6 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="G138">
-        <v>8</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139">
@@ -4066,11 +7274,8 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="G139">
-        <v>9</v>
-      </c>
-      <c r="H139">
-        <v>4</v>
+      <c r="G139" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.35">
@@ -4086,11 +7291,8 @@
       <c r="E140">
         <v>32</v>
       </c>
-      <c r="G140">
-        <v>10</v>
-      </c>
-      <c r="H140">
-        <v>3</v>
+      <c r="G140" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.35">
@@ -4106,12 +7308,6 @@
       <c r="E141">
         <v>51</v>
       </c>
-      <c r="G141">
-        <v>11</v>
-      </c>
-      <c r="H141">
-        <v>3</v>
-      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142">
@@ -4127,10 +7323,10 @@
         <v>76</v>
       </c>
       <c r="G142">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.35">
@@ -4147,10 +7343,10 @@
         <v>102</v>
       </c>
       <c r="G143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H143">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.35">
@@ -4167,10 +7363,10 @@
         <v>105</v>
       </c>
       <c r="G144">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H144">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
@@ -4187,10 +7383,10 @@
         <v>115</v>
       </c>
       <c r="G145">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H145">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
@@ -4207,10 +7403,10 @@
         <v>122</v>
       </c>
       <c r="G146">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H146">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -4227,10 +7423,10 @@
         <v>148</v>
       </c>
       <c r="G147">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H147">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
@@ -4247,10 +7443,10 @@
         <v>219</v>
       </c>
       <c r="G148">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H148">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -4267,10 +7463,10 @@
         <v>241</v>
       </c>
       <c r="G149">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H149">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -4287,10 +7483,10 @@
         <v>258</v>
       </c>
       <c r="G150">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H150">
-        <v>173</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -4307,10 +7503,10 @@
         <v>303</v>
       </c>
       <c r="G151">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H151">
-        <v>261</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -4327,10 +7523,10 @@
         <v>350</v>
       </c>
       <c r="G152">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H152">
-        <v>327</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -4347,10 +7543,10 @@
         <v>363</v>
       </c>
       <c r="G153">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H153">
-        <v>466</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -4367,10 +7563,10 @@
         <v>459</v>
       </c>
       <c r="G154">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H154">
-        <v>530</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
@@ -4387,10 +7583,10 @@
         <v>521</v>
       </c>
       <c r="G155">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H155">
-        <v>630</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -4407,10 +7603,10 @@
         <v>582</v>
       </c>
       <c r="G156">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H156">
-        <v>728</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -4427,10 +7623,10 @@
         <v>588</v>
       </c>
       <c r="G157">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H157">
-        <v>747</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -4447,10 +7643,10 @@
         <v>568</v>
       </c>
       <c r="G158">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H158">
-        <v>823</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -4467,10 +7663,10 @@
         <v>614</v>
       </c>
       <c r="G159">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H159">
-        <v>768</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -4487,10 +7683,10 @@
         <v>604</v>
       </c>
       <c r="G160">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H160">
-        <v>778</v>
+        <v>728</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -4507,10 +7703,10 @@
         <v>631</v>
       </c>
       <c r="G161">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H161">
-        <v>707</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -4527,10 +7723,10 @@
         <v>577</v>
       </c>
       <c r="G162">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H162">
-        <v>585</v>
+        <v>823</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -4547,10 +7743,10 @@
         <v>528</v>
       </c>
       <c r="G163">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H163">
-        <v>549</v>
+        <v>768</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -4567,10 +7763,10 @@
         <v>437</v>
       </c>
       <c r="G164">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>440</v>
+        <v>778</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -4587,10 +7783,10 @@
         <v>388</v>
       </c>
       <c r="G165">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>334</v>
+        <v>707</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -4607,10 +7803,10 @@
         <v>338</v>
       </c>
       <c r="G166">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>300</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -4627,10 +7823,10 @@
         <v>223</v>
       </c>
       <c r="G167">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H167">
-        <v>218</v>
+        <v>549</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -4647,10 +7843,10 @@
         <v>163</v>
       </c>
       <c r="G168">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>144</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -4667,10 +7863,10 @@
         <v>104</v>
       </c>
       <c r="G169">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <v>90</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -4687,10 +7883,10 @@
         <v>90</v>
       </c>
       <c r="G170">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>23</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -4707,10 +7903,10 @@
         <v>58</v>
       </c>
       <c r="G171">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -4726,6 +7922,12 @@
       <c r="E172">
         <v>20</v>
       </c>
+      <c r="G172">
+        <v>38</v>
+      </c>
+      <c r="H172">
+        <v>144</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
@@ -4740,6 +7942,12 @@
       <c r="E173">
         <v>11</v>
       </c>
+      <c r="G173">
+        <v>39</v>
+      </c>
+      <c r="H173">
+        <v>90</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
@@ -4754,6 +7962,12 @@
       <c r="E174">
         <v>5</v>
       </c>
+      <c r="G174">
+        <v>40</v>
+      </c>
+      <c r="H174">
+        <v>23</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
@@ -4768,6 +7982,12 @@
       <c r="E175">
         <v>3</v>
       </c>
+      <c r="G175">
+        <v>41</v>
+      </c>
+      <c r="H175">
+        <v>10</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
@@ -4783,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <f>SUMPRODUCT(A138:A176,B138:B176)/10000</f>
         <v>26.9969</v>
@@ -4792,6 +8012,459 @@
         <f>SUMPRODUCT(D138:D176,E138:E176)/10000</f>
         <v>22.602</v>
       </c>
+      <c r="G178" s="1">
+        <f>SUMPRODUCT(G142:G175,H142:H175)/10000</f>
+        <v>28.4466</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="G183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4">
+        <v>0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1</v>
+      </c>
+      <c r="H186" s="4">
+        <v>0</v>
+      </c>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C187" s="4">
+        <v>2</v>
+      </c>
+      <c r="D187" s="4">
+        <v>0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>49</v>
+      </c>
+      <c r="G187" s="4">
+        <v>2</v>
+      </c>
+      <c r="H187" s="4">
+        <v>49</v>
+      </c>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C188" s="4">
+        <v>3</v>
+      </c>
+      <c r="D188" s="4">
+        <v>0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>395</v>
+      </c>
+      <c r="G188" s="4">
+        <v>3</v>
+      </c>
+      <c r="H188" s="4">
+        <v>395</v>
+      </c>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C189" s="4">
+        <v>4</v>
+      </c>
+      <c r="D189" s="4">
+        <v>6</v>
+      </c>
+      <c r="E189" s="4">
+        <v>413</v>
+      </c>
+      <c r="G189" s="4">
+        <v>4</v>
+      </c>
+      <c r="H189" s="4">
+        <v>413</v>
+      </c>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="4"/>
+      <c r="C190" s="4">
+        <v>5</v>
+      </c>
+      <c r="D190" s="4">
+        <v>85</v>
+      </c>
+      <c r="E190" s="4">
+        <v>120</v>
+      </c>
+      <c r="G190" s="4">
+        <v>5</v>
+      </c>
+      <c r="H190" s="4">
+        <v>120</v>
+      </c>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="4"/>
+      <c r="C191" s="4">
+        <v>6</v>
+      </c>
+      <c r="D191" s="4">
+        <v>240</v>
+      </c>
+      <c r="E191" s="4">
+        <v>23</v>
+      </c>
+      <c r="G191" s="4">
+        <v>6</v>
+      </c>
+      <c r="H191" s="4">
+        <v>23</v>
+      </c>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="4"/>
+      <c r="C192" s="4">
+        <v>7</v>
+      </c>
+      <c r="D192" s="4">
+        <v>251</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="4"/>
+      <c r="C193" s="4">
+        <v>8</v>
+      </c>
+      <c r="D193" s="4">
+        <v>186</v>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="4"/>
+      <c r="C194" s="4">
+        <v>9</v>
+      </c>
+      <c r="D194" s="4">
+        <v>69</v>
+      </c>
+      <c r="E194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="4"/>
+      <c r="C195" s="4">
+        <v>10</v>
+      </c>
+      <c r="D195" s="4">
+        <v>41</v>
+      </c>
+      <c r="E195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="4"/>
+      <c r="C196" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" s="4">
+        <v>33</v>
+      </c>
+      <c r="E196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="4"/>
+      <c r="C197" s="4">
+        <v>12</v>
+      </c>
+      <c r="D197" s="4">
+        <v>23</v>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="4"/>
+      <c r="C198" s="4">
+        <v>13</v>
+      </c>
+      <c r="D198" s="4">
+        <v>13</v>
+      </c>
+      <c r="E198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="4"/>
+      <c r="C199" s="4">
+        <v>14</v>
+      </c>
+      <c r="D199" s="4">
+        <v>12</v>
+      </c>
+      <c r="E199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="4"/>
+      <c r="C200" s="4">
+        <v>15</v>
+      </c>
+      <c r="D200" s="4">
+        <v>12</v>
+      </c>
+      <c r="E200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="4"/>
+      <c r="C201" s="4">
+        <v>16</v>
+      </c>
+      <c r="D201" s="4">
+        <v>11</v>
+      </c>
+      <c r="E201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="4"/>
+      <c r="C202" s="4">
+        <v>17</v>
+      </c>
+      <c r="D202" s="4">
+        <v>7</v>
+      </c>
+      <c r="E202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="4"/>
+      <c r="C203" s="4">
+        <v>18</v>
+      </c>
+      <c r="D203" s="4">
+        <v>3</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="4"/>
+      <c r="C204" s="4">
+        <v>19</v>
+      </c>
+      <c r="D204" s="4">
+        <v>4</v>
+      </c>
+      <c r="E204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="4"/>
+      <c r="C205" s="4">
+        <v>20</v>
+      </c>
+      <c r="D205" s="4">
+        <v>0</v>
+      </c>
+      <c r="E205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="4"/>
+      <c r="C206" s="4">
+        <v>21</v>
+      </c>
+      <c r="D206" s="4">
+        <v>3</v>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4">
+        <v>22</v>
+      </c>
+      <c r="D207" s="4">
+        <v>1</v>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4">
+        <v>7.8310000000000004</v>
+      </c>
+      <c r="E208" s="4">
+        <v>3.673</v>
+      </c>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4964,6 +8637,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{C7CF4E9B-94F0-1744-9EA3-0D38C63B8A72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142:H175">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{993200F5-A852-488E-BF4A-E7DFFC0F8816}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5206,21 +8893,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G138:H171">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{993200F5-A852-488E-BF4A-E7DFFC0F8816}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5355,6 +9029,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E138:E176</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{993200F5-A852-488E-BF4A-E7DFFC0F8816}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G142:H175</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0763028-1348-F043-87CB-FE5E50B62ADD}">
@@ -5543,17 +9228,6 @@
           </x14:cfRule>
           <xm:sqref>Q94:Q122</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{993200F5-A852-488E-BF4A-E7DFFC0F8816}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G138:H171</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/src/main/resources/niklas-simulation.xlsx
+++ b/src/main/resources/niklas-simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blumenroth\ideaProjects\Masterarbeit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C866DC0D-200D-4E11-9794-74DD1BC416F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77347D10-39C4-4424-B076-306E5C693C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
   <si>
     <t>h = 0</t>
   </si>
@@ -86,6 +86,30 @@
   <si>
     <t>Lex</t>
   </si>
+  <si>
+    <t>K=10.000</t>
+  </si>
+  <si>
+    <t>7 evaluation each</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>h = h_max*0.3</t>
+  </si>
+  <si>
+    <t>3DMs</t>
+  </si>
+  <si>
+    <t>Alternativen</t>
+  </si>
+  <si>
+    <t>Kriterien</t>
+  </si>
+  <si>
+    <t>6DMs</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +162,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +179,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -176,6 +218,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{9EFEBFAC-DF47-48CE-AC6C-D5C73741F5C9}"/>
@@ -1625,6 +1675,2594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfadlänge mit 3 DMs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> Fuzzy-SAW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$254:$C$256</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.5601000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.594900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B045-4CEF-AC0B-DD0D64B3F255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$254:$D$256</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.062380000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.771999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B045-4CEF-AC0B-DD0D64B3F255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="617610232"/>
+        <c:axId val="617605912"/>
+        <c:axId val="655610248"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="617610232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Alternativen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617605912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere Pfadlänge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617610232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="655610248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kriterien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfadlänge mit 3 DMs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> LEX</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$270:$C$272</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3395999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0311000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C39-4EA7-A46F-BE224CC42AF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$270:$D$272</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8480000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C39-4EA7-A46F-BE224CC42AF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="617610232"/>
+        <c:axId val="617605912"/>
+        <c:axId val="655610248"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="617610232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Alternativen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617605912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere Pfadlänge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617610232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="655610248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kriterien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfadlänge mit 6 DMs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> Fuzzy-SAW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$288:$C$290</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.3459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D27-46F8-BA15-59DEAC932DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$288:$D$290</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.793999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D27-46F8-BA15-59DEAC932DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="617610232"/>
+        <c:axId val="617605912"/>
+        <c:axId val="655610248"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="617610232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Alternativen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617605912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere Pfadlänge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617610232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="655610248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kriterien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfadlänge mit 6 DMs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> LEX</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$304:$C$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.0869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.588699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C557-4725-A4BD-A9E6579E2649}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$304:$D$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.1349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.944299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C557-4725-A4BD-A9E6579E2649}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="617610232"/>
+        <c:axId val="617605912"/>
+        <c:axId val="655610248"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="617610232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Alternativen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617605912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere Pfadlänge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617610232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="655610248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kriterien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617605912"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1745,6 +4383,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3254,20 +6052,1996 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>786375</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>81203</xdr:rowOff>
+      <xdr:colOff>799203</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>190243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>470799</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>40665</xdr:rowOff>
+      <xdr:colOff>483627</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>149706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3295,15 +8069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>536222</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>74789</xdr:rowOff>
+      <xdr:colOff>510565</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>183829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>220646</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>34251</xdr:rowOff>
+      <xdr:colOff>194989</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>143292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3331,15 +8105,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>792788</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>126101</xdr:rowOff>
+      <xdr:colOff>799202</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>10647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>477212</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>85564</xdr:rowOff>
+      <xdr:colOff>483626</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>168948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3359,6 +8133,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156702</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683138</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>19665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C248BA6-6464-C8EC-2030-FAD0DE63BCB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153628</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>81934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>680064</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>100779</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9834F23D-9930-4C09-868A-0A2C487DC1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163871</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>122902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>690307</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>141747</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F38DE94-A388-4667-B486-12A118B171F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235565</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>143387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF15AEC-F0BE-459A-B078-718FB03C0B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3664,13 +8588,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2006E7C-E324-AB43-BD3F-EDC18B652AA2}">
-  <dimension ref="A1:Q212"/>
+  <dimension ref="A1:Q306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" topLeftCell="E263" zoomScale="121" workbookViewId="0">
+      <selection activeCell="N268" sqref="N268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
@@ -7308,6 +12238,12 @@
       <c r="E141">
         <v>51</v>
       </c>
+      <c r="G141">
+        <v>7</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142">
@@ -7326,7 +12262,7 @@
         <v>8</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.35">
@@ -7346,7 +12282,7 @@
         <v>9</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.35">
@@ -7406,7 +12342,7 @@
         <v>12</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -7426,7 +12362,7 @@
         <v>13</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
@@ -7446,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="H148">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -7466,7 +12402,7 @@
         <v>15</v>
       </c>
       <c r="H149">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -7486,7 +12422,7 @@
         <v>16</v>
       </c>
       <c r="H150">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -7506,7 +12442,7 @@
         <v>17</v>
       </c>
       <c r="H151">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -7526,7 +12462,7 @@
         <v>18</v>
       </c>
       <c r="H152">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -7546,7 +12482,7 @@
         <v>19</v>
       </c>
       <c r="H153">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -7566,7 +12502,7 @@
         <v>20</v>
       </c>
       <c r="H154">
-        <v>173</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
@@ -7586,7 +12522,7 @@
         <v>21</v>
       </c>
       <c r="H155">
-        <v>261</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -7606,7 +12542,7 @@
         <v>22</v>
       </c>
       <c r="H156">
-        <v>327</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -7626,7 +12562,7 @@
         <v>23</v>
       </c>
       <c r="H157">
-        <v>466</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -7646,7 +12582,7 @@
         <v>24</v>
       </c>
       <c r="H158">
-        <v>530</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -7666,7 +12602,7 @@
         <v>25</v>
       </c>
       <c r="H159">
-        <v>630</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -7686,7 +12622,7 @@
         <v>26</v>
       </c>
       <c r="H160">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -7706,7 +12642,7 @@
         <v>27</v>
       </c>
       <c r="H161">
-        <v>747</v>
+        <v>823</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -7726,7 +12662,7 @@
         <v>28</v>
       </c>
       <c r="H162">
-        <v>823</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -7746,7 +12682,7 @@
         <v>29</v>
       </c>
       <c r="H163">
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -7766,7 +12702,7 @@
         <v>30</v>
       </c>
       <c r="H164">
-        <v>778</v>
+        <v>707</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -7786,7 +12722,7 @@
         <v>31</v>
       </c>
       <c r="H165">
-        <v>707</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -7806,7 +12742,7 @@
         <v>32</v>
       </c>
       <c r="H166">
-        <v>585</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -7826,7 +12762,7 @@
         <v>33</v>
       </c>
       <c r="H167">
-        <v>549</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -7846,7 +12782,7 @@
         <v>34</v>
       </c>
       <c r="H168">
-        <v>440</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -7866,7 +12802,7 @@
         <v>35</v>
       </c>
       <c r="H169">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -7886,7 +12822,7 @@
         <v>36</v>
       </c>
       <c r="H170">
-        <v>300</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -7906,7 +12842,7 @@
         <v>37</v>
       </c>
       <c r="H171">
-        <v>218</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -7926,7 +12862,7 @@
         <v>38</v>
       </c>
       <c r="H172">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -7946,7 +12882,7 @@
         <v>39</v>
       </c>
       <c r="H173">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -7966,7 +12902,7 @@
         <v>40</v>
       </c>
       <c r="H174">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -7986,7 +12922,7 @@
         <v>41</v>
       </c>
       <c r="H175">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -8003,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <f>SUMPRODUCT(A138:A176,B138:B176)/10000</f>
         <v>26.9969</v>
@@ -8013,11 +12949,11 @@
         <v>22.602</v>
       </c>
       <c r="G178" s="1">
-        <f>SUMPRODUCT(G142:G175,H142:H175)/10000</f>
-        <v>28.4466</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+        <f>SUMPRODUCT(G141:G175,H141:H175)/10000</f>
+        <v>27.444299999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>13</v>
       </c>
@@ -8029,8 +12965,17 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -8041,7 +12986,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5" t="s">
@@ -8054,8 +12999,27 @@
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J183" s="7"/>
+      <c r="K183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P183" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C184" s="4" t="s">
         <v>16</v>
       </c>
@@ -8072,8 +13036,29 @@
         <v>17</v>
       </c>
       <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J184" t="s">
+        <v>16</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M184" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N184" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O184" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P184" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C185">
         <v>0</v>
       </c>
@@ -8089,8 +13074,29 @@
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C186" s="4">
         <v>1</v>
       </c>
@@ -8107,8 +13113,29 @@
         <v>0</v>
       </c>
       <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J186" s="7">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186">
+        <v>7</v>
+      </c>
+      <c r="P186">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C187" s="4">
         <v>2</v>
       </c>
@@ -8125,8 +13152,29 @@
         <v>49</v>
       </c>
       <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J187">
+        <v>3</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>459</v>
+      </c>
+      <c r="M187">
+        <v>25</v>
+      </c>
+      <c r="N187">
+        <v>501</v>
+      </c>
+      <c r="O187">
+        <v>265</v>
+      </c>
+      <c r="P187">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C188" s="4">
         <v>3</v>
       </c>
@@ -8143,8 +13191,29 @@
         <v>395</v>
       </c>
       <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J188" s="7">
+        <v>4</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+      <c r="L188">
+        <v>4054</v>
+      </c>
+      <c r="M188">
+        <v>337</v>
+      </c>
+      <c r="N188">
+        <v>4390</v>
+      </c>
+      <c r="O188">
+        <v>2297</v>
+      </c>
+      <c r="P188">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C189" s="4">
         <v>4</v>
       </c>
@@ -8161,8 +13230,29 @@
         <v>413</v>
       </c>
       <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J189">
+        <v>5</v>
+      </c>
+      <c r="K189">
+        <v>68</v>
+      </c>
+      <c r="L189">
+        <v>4156</v>
+      </c>
+      <c r="M189">
+        <v>2094</v>
+      </c>
+      <c r="N189">
+        <v>4145</v>
+      </c>
+      <c r="O189">
+        <v>5164</v>
+      </c>
+      <c r="P189">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="C190" s="4">
         <v>5</v>
@@ -8180,8 +13270,29 @@
         <v>120</v>
       </c>
       <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J190" s="7">
+        <v>6</v>
+      </c>
+      <c r="K190">
+        <v>766</v>
+      </c>
+      <c r="L190">
+        <v>1180</v>
+      </c>
+      <c r="M190">
+        <v>4544</v>
+      </c>
+      <c r="N190">
+        <v>905</v>
+      </c>
+      <c r="O190">
+        <v>1940</v>
+      </c>
+      <c r="P190">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="C191" s="4">
         <v>6</v>
@@ -8199,8 +13310,29 @@
         <v>23</v>
       </c>
       <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J191">
+        <v>7</v>
+      </c>
+      <c r="K191">
+        <v>2554</v>
+      </c>
+      <c r="L191">
+        <v>138</v>
+      </c>
+      <c r="M191">
+        <v>2378</v>
+      </c>
+      <c r="N191">
+        <v>56</v>
+      </c>
+      <c r="O191">
+        <v>281</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="C192" s="4">
         <v>7</v>
@@ -8212,8 +13344,23 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J192" s="7">
+        <v>8</v>
+      </c>
+      <c r="K192">
+        <v>2597</v>
+      </c>
+      <c r="L192">
+        <v>6</v>
+      </c>
+      <c r="M192">
+        <v>521</v>
+      </c>
+      <c r="O192">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="C193" s="4">
         <v>8</v>
@@ -8224,8 +13371,23 @@
       <c r="E193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J193">
+        <v>9</v>
+      </c>
+      <c r="K193">
+        <v>1678</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>95</v>
+      </c>
+      <c r="O193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="C194" s="4">
         <v>9</v>
@@ -8237,8 +13399,20 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J194" s="7">
+        <v>10</v>
+      </c>
+      <c r="K194">
+        <v>869</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="C195" s="4">
         <v>10</v>
@@ -8250,8 +13424,20 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J195">
+        <v>11</v>
+      </c>
+      <c r="K195">
+        <v>431</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="C196" s="4">
         <v>11</v>
@@ -8263,8 +13449,14 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J196" s="7">
+        <v>12</v>
+      </c>
+      <c r="K196">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="C197" s="4">
         <v>12</v>
@@ -8276,8 +13468,14 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J197">
+        <v>13</v>
+      </c>
+      <c r="K197">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="C198" s="4">
         <v>13</v>
@@ -8289,8 +13487,14 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J198" s="7">
+        <v>14</v>
+      </c>
+      <c r="K198">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="C199" s="4">
         <v>14</v>
@@ -8302,8 +13506,14 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J199">
+        <v>15</v>
+      </c>
+      <c r="K199">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="C200" s="4">
         <v>15</v>
@@ -8315,8 +13525,14 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J200" s="7">
+        <v>16</v>
+      </c>
+      <c r="K200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="C201" s="4">
         <v>16</v>
@@ -8328,8 +13544,14 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J201">
+        <v>17</v>
+      </c>
+      <c r="K201">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="C202" s="4">
         <v>17</v>
@@ -8341,8 +13563,14 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J202" s="7">
+        <v>18</v>
+      </c>
+      <c r="K202">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="C203" s="4">
         <v>18</v>
@@ -8354,8 +13582,14 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J203">
+        <v>19</v>
+      </c>
+      <c r="K203">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="C204" s="4">
         <v>19</v>
@@ -8367,8 +13601,14 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J204" s="7">
+        <v>20</v>
+      </c>
+      <c r="K204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="C205" s="4">
         <v>20</v>
@@ -8380,8 +13620,14 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J205">
+        <v>21</v>
+      </c>
+      <c r="K205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="C206" s="4">
         <v>21</v>
@@ -8393,8 +13639,14 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J206" s="7">
+        <v>22</v>
+      </c>
+      <c r="K206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4">
@@ -8407,8 +13659,14 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J207">
+        <v>23</v>
+      </c>
+      <c r="K207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8422,8 +13680,14 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J208" s="7">
+        <v>24</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8432,8 +13696,35 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J209" t="s">
+        <v>22</v>
+      </c>
+      <c r="K209" s="8">
+        <f>SUMPRODUCT($J$185:$J$208,K185:K208)/10000</f>
+        <v>8.6990999999999996</v>
+      </c>
+      <c r="L209" s="9">
+        <f>SUMPRODUCT($J$185:$J$208,L185:L208)/10000</f>
+        <v>4.6515000000000004</v>
+      </c>
+      <c r="M209" s="8">
+        <f>SUMPRODUCT($J$185:$J$208,M185:M208)/10000</f>
+        <v>6.0887000000000002</v>
+      </c>
+      <c r="N209" s="9">
+        <f>SUMPRODUCT($J$185:$J$208,N185:N208)/10000</f>
+        <v>4.5616000000000003</v>
+      </c>
+      <c r="O209" s="8">
+        <f>SUMPRODUCT($J$185:$J$208,O185:O208)/10000</f>
+        <v>4.9794</v>
+      </c>
+      <c r="P209" s="9">
+        <f>SUMPRODUCT($J$185:$J$208,P185:P208)/10000</f>
+        <v>4.0721999999999996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -8444,7 +13735,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -8455,7 +13746,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -8466,6 +13757,216 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254" s="12">
+        <v>9.5601000000000003</v>
+      </c>
+      <c r="D254" s="10">
+        <v>19.062380000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>10</v>
+      </c>
+      <c r="C255" s="12">
+        <v>12.594900000000001</v>
+      </c>
+      <c r="D255" s="12">
+        <v>25.898</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>15</v>
+      </c>
+      <c r="C256" s="12">
+        <v>14.456</v>
+      </c>
+      <c r="D256" s="12">
+        <v>30.771999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>6</v>
+      </c>
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270" s="12">
+        <v>6.3395999999999999</v>
+      </c>
+      <c r="D270" s="12">
+        <v>6.726</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>10</v>
+      </c>
+      <c r="C271" s="12">
+        <v>8.0311000000000003</v>
+      </c>
+      <c r="D271" s="12">
+        <v>8.8480000000000008</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>15</v>
+      </c>
+      <c r="C272" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="D272" s="12">
+        <v>10.353</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>25</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>6</v>
+      </c>
+      <c r="E287" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288" s="11">
+        <v>12.54</v>
+      </c>
+      <c r="D288" s="11">
+        <v>25.329000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>10</v>
+      </c>
+      <c r="C289" s="11">
+        <v>18.009</v>
+      </c>
+      <c r="D289" s="11">
+        <v>40.061</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290" s="11">
+        <v>22.3459</v>
+      </c>
+      <c r="D290" s="11">
+        <v>55.793999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s">
+        <v>25</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304" s="11">
+        <v>9.0869</v>
+      </c>
+      <c r="D304" s="11">
+        <v>10.1349</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>10</v>
+      </c>
+      <c r="C305" s="11">
+        <v>12.6769</v>
+      </c>
+      <c r="D305" s="11">
+        <v>13.833</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>15</v>
+      </c>
+      <c r="C306" s="11">
+        <v>15.588699999999999</v>
+      </c>
+      <c r="D306" s="11">
+        <v>16.944299999999998</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:Q3"/>
@@ -8474,7 +13975,7 @@
     <mergeCell ref="A134:Q134"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B29">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8488,7 +13989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B36">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8502,7 +14003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B82">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8516,7 +14017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B116">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8530,7 +14031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B123">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8544,7 +14045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B129">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8558,7 +14059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B176">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8572,7 +14073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E39">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8586,7 +14087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E83">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8600,7 +14101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E126">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8614,7 +14115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E129">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8628,7 +14129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138:E176">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8641,8 +14142,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G142:H175">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="G142:G175 H141:H175">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8656,7 +14157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H37">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8670,7 +14171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H73">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8684,7 +14185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H81">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8698,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:H124">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8712,7 +14213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K42">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8726,7 +14227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K83">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8740,7 +14241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:K129">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8754,7 +14255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N31">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8768,7 +14269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:N75">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8782,7 +14283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94:N118">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8796,7 +14297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94:N123">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8810,7 +14311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q29">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8824,7 +14325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:Q73">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8838,7 +14339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:Q75">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8852,7 +14353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74:Q75">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8866,7 +14367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q94:Q115">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8880,7 +14381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q94:Q122">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8893,7 +14394,92 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K185:K208">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7558CAAF-0308-4B0C-9266-CEB75A3332AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L185:L195">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M185:M195">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{320195BA-6DC1-48E0-8550-A2F8B8536803}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N185:N191">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O185:O193">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B18B7501-36F3-4CBE-9536-0845CC6E1F65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P185:P191">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A6DB2AB-7299-44C5-A58C-43A9759019BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -9039,7 +14625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G142:H175</xm:sqref>
+          <xm:sqref>G142:G175 H141:H175</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0763028-1348-F043-87CB-FE5E50B62ADD}">
@@ -9228,6 +14814,72 @@
           </x14:cfRule>
           <xm:sqref>Q94:Q122</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7558CAAF-0308-4B0C-9266-CEB75A3332AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K185:K208</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L185:L195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{320195BA-6DC1-48E0-8550-A2F8B8536803}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M185:M195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N185:N191</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B18B7501-36F3-4CBE-9536-0845CC6E1F65}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O185:O193</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A6DB2AB-7299-44C5-A58C-43A9759019BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P185:P191</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/src/main/resources/niklas-simulation.xlsx
+++ b/src/main/resources/niklas-simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blumenroth\ideaProjects\Masterarbeit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77347D10-39C4-4424-B076-306E5C693C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59AD809-2023-4B6E-B69E-CC62E397C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,17 +208,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -226,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{9EFEBFAC-DF47-48CE-AC6C-D5C73741F5C9}"/>
@@ -672,6 +671,599 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EO - Abbruch:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> h=h_max*0.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fuzzy-SAW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$185:$M$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F505-428A-A273-59FDB8FF751E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$185:$N$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F505-428A-A273-59FDB8FF751E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="624373368"/>
+        <c:axId val="624373728"/>
+        <c:axId val="631147184"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="624373368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Pfadlängen</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624373728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624373728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Anzahl Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624373368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="631147184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624373728"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2146,7 +2738,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2178,7 +2770,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4263,7 +4855,1265 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EO - Abbruch: h=h_max*0.3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fuzzy-SAW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$185:$O$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA04-46BA-89A0-D896D2426061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$185:$P$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA04-46BA-89A0-D896D2426061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="558465712"/>
+        <c:axId val="558461032"/>
+        <c:axId val="554565880"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="558465712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>mittlere</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Pfadlängen</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558461032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="558461032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558465712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="554565880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558461032"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EO - Abbruch: h=0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fuzzy-SAW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$185:$K$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-941D-4FBB-80F6-C8FB4154A66C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LEX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$185:$L$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-941D-4FBB-80F6-C8FB4154A66C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="548519232"/>
+        <c:axId val="548521752"/>
+        <c:axId val="560511936"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="548519232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mittlere Pfadlängen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548521752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="548521752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Anzahl Probleme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548519232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="560511936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548521752"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4543,7 +6393,590 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7996,6 +10429,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8283,6 +11722,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>158724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241720</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>149934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADF3E40-311E-F1AB-4A80-61BC758030B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536627</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>78903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249039</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>73288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507D2083-ACC6-40E8-D2F2-90344BC95FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>364208</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>119364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1027048</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>104224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A43CB7-2616-5A50-DB9F-3DA40924062D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8590,12 +12137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2006E7C-E324-AB43-BD3F-EDC18B652AA2}">
   <dimension ref="A1:Q306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E263" zoomScale="121" workbookViewId="0">
-      <selection activeCell="N268" sqref="N268"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="121" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="11" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.1640625" customWidth="1"/>
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
@@ -8608,25 +12156,25 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -9882,25 +13430,25 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -11171,25 +14719,25 @@
       <c r="J88" s="1"/>
     </row>
     <row r="90" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -12130,25 +15678,25 @@
       <c r="J131" s="1"/>
     </row>
     <row r="134" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
@@ -12999,23 +16547,23 @@
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="8" t="s">
+      <c r="J183" s="4"/>
+      <c r="K183" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L183" s="9" t="s">
+      <c r="L183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M183" s="8" t="s">
+      <c r="M183" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N183" s="9" t="s">
+      <c r="N183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O183" s="8" t="s">
+      <c r="O183" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P183" s="9" t="s">
+      <c r="P183" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13039,22 +16587,22 @@
       <c r="J184" t="s">
         <v>16</v>
       </c>
-      <c r="K184" s="7" t="s">
+      <c r="K184" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L184" s="7" t="s">
+      <c r="L184" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M184" s="7" t="s">
+      <c r="M184" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N184" s="7" t="s">
+      <c r="N184" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O184" s="7" t="s">
+      <c r="O184" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P184" s="7" t="s">
+      <c r="P184" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13113,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="4"/>
-      <c r="J186" s="7">
+      <c r="J186" s="4">
         <v>2</v>
       </c>
       <c r="K186">
@@ -13191,7 +16739,7 @@
         <v>395</v>
       </c>
       <c r="I188" s="4"/>
-      <c r="J188" s="7">
+      <c r="J188" s="4">
         <v>4</v>
       </c>
       <c r="K188">
@@ -13270,7 +16818,7 @@
         <v>120</v>
       </c>
       <c r="I190" s="4"/>
-      <c r="J190" s="7">
+      <c r="J190" s="4">
         <v>6</v>
       </c>
       <c r="K190">
@@ -13344,7 +16892,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="7">
+      <c r="J192" s="4">
         <v>8</v>
       </c>
       <c r="K192">
@@ -13399,7 +16947,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-      <c r="J194" s="7">
+      <c r="J194" s="4">
         <v>10</v>
       </c>
       <c r="K194">
@@ -13449,7 +16997,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-      <c r="J196" s="7">
+      <c r="J196" s="4">
         <v>12</v>
       </c>
       <c r="K196">
@@ -13487,7 +17035,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-      <c r="J198" s="7">
+      <c r="J198" s="4">
         <v>14</v>
       </c>
       <c r="K198">
@@ -13525,7 +17073,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-      <c r="J200" s="7">
+      <c r="J200" s="4">
         <v>16</v>
       </c>
       <c r="K200">
@@ -13563,7 +17111,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
-      <c r="J202" s="7">
+      <c r="J202" s="4">
         <v>18</v>
       </c>
       <c r="K202">
@@ -13601,7 +17149,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="7">
+      <c r="J204" s="4">
         <v>20</v>
       </c>
       <c r="K204">
@@ -13639,7 +17187,7 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="7">
+      <c r="J206" s="4">
         <v>22</v>
       </c>
       <c r="K206">
@@ -13680,7 +17228,7 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="7">
+      <c r="J208" s="4">
         <v>24</v>
       </c>
       <c r="K208">
@@ -13699,28 +17247,28 @@
       <c r="J209" t="s">
         <v>22</v>
       </c>
-      <c r="K209" s="8">
-        <f>SUMPRODUCT($J$185:$J$208,K185:K208)/10000</f>
+      <c r="K209" s="6">
+        <f t="shared" ref="K209:P209" si="0">SUMPRODUCT($J$185:$J$208,K185:K208)/10000</f>
         <v>8.6990999999999996</v>
       </c>
-      <c r="L209" s="9">
-        <f>SUMPRODUCT($J$185:$J$208,L185:L208)/10000</f>
+      <c r="L209" s="7">
+        <f t="shared" si="0"/>
         <v>4.6515000000000004</v>
       </c>
-      <c r="M209" s="8">
-        <f>SUMPRODUCT($J$185:$J$208,M185:M208)/10000</f>
+      <c r="M209" s="6">
+        <f t="shared" si="0"/>
         <v>6.0887000000000002</v>
       </c>
-      <c r="N209" s="9">
-        <f>SUMPRODUCT($J$185:$J$208,N185:N208)/10000</f>
+      <c r="N209" s="7">
+        <f t="shared" si="0"/>
         <v>4.5616000000000003</v>
       </c>
-      <c r="O209" s="8">
-        <f>SUMPRODUCT($J$185:$J$208,O185:O208)/10000</f>
+      <c r="O209" s="6">
+        <f t="shared" si="0"/>
         <v>4.9794</v>
       </c>
-      <c r="P209" s="9">
-        <f>SUMPRODUCT($J$185:$J$208,P185:P208)/10000</f>
+      <c r="P209" s="7">
+        <f t="shared" si="0"/>
         <v>4.0721999999999996</v>
       </c>
     </row>
@@ -13783,10 +17331,10 @@
       <c r="B254">
         <v>5</v>
       </c>
-      <c r="C254" s="12">
+      <c r="C254" s="10">
         <v>9.5601000000000003</v>
       </c>
-      <c r="D254" s="10">
+      <c r="D254" s="8">
         <v>19.062380000000001</v>
       </c>
     </row>
@@ -13794,10 +17342,10 @@
       <c r="B255">
         <v>10</v>
       </c>
-      <c r="C255" s="12">
+      <c r="C255" s="10">
         <v>12.594900000000001</v>
       </c>
-      <c r="D255" s="12">
+      <c r="D255" s="10">
         <v>25.898</v>
       </c>
     </row>
@@ -13805,10 +17353,10 @@
       <c r="B256">
         <v>15</v>
       </c>
-      <c r="C256" s="12">
+      <c r="C256" s="10">
         <v>14.456</v>
       </c>
-      <c r="D256" s="12">
+      <c r="D256" s="10">
         <v>30.771999999999998</v>
       </c>
     </row>
@@ -13833,10 +17381,10 @@
       <c r="B270">
         <v>5</v>
       </c>
-      <c r="C270" s="12">
+      <c r="C270" s="10">
         <v>6.3395999999999999</v>
       </c>
-      <c r="D270" s="12">
+      <c r="D270" s="10">
         <v>6.726</v>
       </c>
     </row>
@@ -13844,10 +17392,10 @@
       <c r="B271">
         <v>10</v>
       </c>
-      <c r="C271" s="12">
+      <c r="C271" s="10">
         <v>8.0311000000000003</v>
       </c>
-      <c r="D271" s="12">
+      <c r="D271" s="10">
         <v>8.8480000000000008</v>
       </c>
     </row>
@@ -13855,10 +17403,10 @@
       <c r="B272">
         <v>15</v>
       </c>
-      <c r="C272" s="12">
+      <c r="C272" s="10">
         <v>9.4</v>
       </c>
-      <c r="D272" s="12">
+      <c r="D272" s="10">
         <v>10.353</v>
       </c>
     </row>
@@ -13888,10 +17436,10 @@
       <c r="B288">
         <v>5</v>
       </c>
-      <c r="C288" s="11">
+      <c r="C288" s="9">
         <v>12.54</v>
       </c>
-      <c r="D288" s="11">
+      <c r="D288" s="9">
         <v>25.329000000000001</v>
       </c>
     </row>
@@ -13899,10 +17447,10 @@
       <c r="B289">
         <v>10</v>
       </c>
-      <c r="C289" s="11">
+      <c r="C289" s="9">
         <v>18.009</v>
       </c>
-      <c r="D289" s="11">
+      <c r="D289" s="9">
         <v>40.061</v>
       </c>
     </row>
@@ -13910,10 +17458,10 @@
       <c r="B290">
         <v>15</v>
       </c>
-      <c r="C290" s="11">
+      <c r="C290" s="9">
         <v>22.3459</v>
       </c>
-      <c r="D290" s="11">
+      <c r="D290" s="9">
         <v>55.793999999999997</v>
       </c>
     </row>
@@ -13938,10 +17486,10 @@
       <c r="B304">
         <v>5</v>
       </c>
-      <c r="C304" s="11">
+      <c r="C304" s="9">
         <v>9.0869</v>
       </c>
-      <c r="D304" s="11">
+      <c r="D304" s="9">
         <v>10.1349</v>
       </c>
     </row>
@@ -13949,10 +17497,10 @@
       <c r="B305">
         <v>10</v>
       </c>
-      <c r="C305" s="11">
+      <c r="C305" s="9">
         <v>12.6769</v>
       </c>
-      <c r="D305" s="11">
+      <c r="D305" s="9">
         <v>13.833</v>
       </c>
     </row>
@@ -13960,10 +17508,10 @@
       <c r="B306">
         <v>15</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C306" s="9">
         <v>15.588699999999999</v>
       </c>
-      <c r="D306" s="11">
+      <c r="D306" s="9">
         <v>16.944299999999998</v>
       </c>
     </row>
@@ -14254,6 +17802,48 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K185:K208">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7558CAAF-0308-4B0C-9266-CEB75A3332AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L185:L195">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M185:M195">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{320195BA-6DC1-48E0-8550-A2F8B8536803}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N7:N31">
     <cfRule type="dataBar" priority="34">
       <dataBar>
@@ -14306,6 +17896,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2C9E95BB-DAF0-614C-B45C-39F8230A4241}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N185:N191">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O185:O193">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B18B7501-36F3-4CBE-9536-0845CC6E1F65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P185:P191">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A6DB2AB-7299-44C5-A58C-43A9759019BD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14390,90 +18022,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D11D5D4E-9614-5D44-92EB-4F320EC3DC1B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K185:K208">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7558CAAF-0308-4B0C-9266-CEB75A3332AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L185:L195">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M185:M195">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{320195BA-6DC1-48E0-8550-A2F8B8536803}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N185:N191">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O185:O193">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B18B7501-36F3-4CBE-9536-0845CC6E1F65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P185:P191">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8A6DB2AB-7299-44C5-A58C-43A9759019BD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14705,6 +18253,39 @@
           <xm:sqref>K94:K129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7558CAAF-0308-4B0C-9266-CEB75A3332AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K185:K208</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L185:L195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{320195BA-6DC1-48E0-8550-A2F8B8536803}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M185:M195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C8B8320-F580-F049-839B-81B9FA1EDCC0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -14747,6 +18328,39 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>N94:N123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N185:N191</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B18B7501-36F3-4CBE-9536-0845CC6E1F65}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O185:O193</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A6DB2AB-7299-44C5-A58C-43A9759019BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P185:P191</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F72ACB54-1552-C646-A1CA-7481485DE0FF}">
@@ -14814,72 +18428,6 @@
           </x14:cfRule>
           <xm:sqref>Q94:Q122</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7558CAAF-0308-4B0C-9266-CEB75A3332AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K185:K208</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C8F87CF9-E481-46B0-BCA6-F6F6AA864980}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L185:L195</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{320195BA-6DC1-48E0-8550-A2F8B8536803}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M185:M195</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FDFC97E-DA03-4EB2-A57C-A0BB7D9F1AC8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N185:N191</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B18B7501-36F3-4CBE-9536-0845CC6E1F65}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O185:O193</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8A6DB2AB-7299-44C5-A58C-43A9759019BD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P185:P191</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/src/main/resources/niklas-simulation.xlsx
+++ b/src/main/resources/niklas-simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blumenroth\ideaProjects\Masterarbeit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59AD809-2023-4B6E-B69E-CC62E397C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B47534-7590-4F69-951C-7608E923615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{504B8043-4091-C046-B1F1-6A5603541A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
   <si>
     <t>h = 0</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>6DMs</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
   </si>
 </sst>
 </file>
@@ -1224,6 +1227,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="624373728"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -1282,6 +1286,653 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchschnittliche Pfadlängen in Abhängigkeit der Abbruchbedingung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$188:$S$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6515000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5616000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0721999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2F3-4DE1-B4ED-C03CAFB9B688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fuzzy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$188:$T$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.6990999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0887000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2F3-4DE1-B4ED-C03CAFB9B688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="434612440"/>
+        <c:axId val="434611360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434612440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Abbruchbedingung</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434611360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434611360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>durchschnittliche Pfadlänge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434612440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2429,13 +3080,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.5601000000000003</c:v>
+                  <c:v>8.5601000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.594900000000001</c:v>
+                  <c:v>11.594900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.456</c:v>
+                  <c:v>13.456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,13 +3136,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.062380000000001</c:v>
+                  <c:v>18.062380000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.898</c:v>
+                  <c:v>24.898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.771999999999998</c:v>
+                  <c:v>29.771999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,13 +3727,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3395999999999999</c:v>
+                  <c:v>5.3395999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0311000000000003</c:v>
+                  <c:v>7.0311000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,13 +3783,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.726</c:v>
+                  <c:v>5.726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8480000000000008</c:v>
+                  <c:v>7.8479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.353</c:v>
+                  <c:v>9.3529999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,13 +4374,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.54</c:v>
+                  <c:v>11.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.009</c:v>
+                  <c:v>17.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.3459</c:v>
+                  <c:v>21.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3779,13 +4430,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25.329000000000001</c:v>
+                  <c:v>24.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.061</c:v>
+                  <c:v>39.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.793999999999997</c:v>
+                  <c:v>54.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,16 +5018,16 @@
             <c:numRef>
               <c:f>Sheet1!$C$304:$C$306</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.0869</c:v>
+                  <c:v>8.0869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6769</c:v>
+                  <c:v>11.6769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.588699999999999</c:v>
+                  <c:v>14.588699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4423,16 +5074,16 @@
             <c:numRef>
               <c:f>Sheet1!$D$304:$D$306</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.1349</c:v>
+                  <c:v>9.1349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.833</c:v>
+                  <c:v>12.833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.944299999999998</c:v>
+                  <c:v>15.9443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4634,7 +5285,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5354,6 +6005,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="558461032"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -5989,6 +6641,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="548521752"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -6114,6 +6767,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7475,6 +8168,544 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11835,6 +13066,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>42636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D94B013-4A1D-007E-64C1-A7C2E78E8B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12135,10 +13402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2006E7C-E324-AB43-BD3F-EDC18B652AA2}">
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:T306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="121" workbookViewId="0">
-      <selection activeCell="M229" sqref="M229"/>
+    <sheetView tabSelected="1" topLeftCell="L190" zoomScale="138" workbookViewId="0">
+      <selection activeCell="T201" sqref="T201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -16487,7 +17754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <f>SUMPRODUCT(A138:A176,B138:B176)/10000</f>
         <v>26.9969</v>
@@ -16501,7 +17768,7 @@
         <v>27.444299999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>13</v>
       </c>
@@ -16523,7 +17790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -16534,7 +17801,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5" t="s">
@@ -16567,7 +17834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C184" s="4" t="s">
         <v>16</v>
       </c>
@@ -16606,7 +17873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C185">
         <v>0</v>
       </c>
@@ -16644,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C186" s="4">
         <v>1</v>
       </c>
@@ -16683,7 +17950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C187" s="4">
         <v>2</v>
       </c>
@@ -16721,8 +17988,14 @@
       <c r="P187">
         <v>1089</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S187" t="s">
+        <v>15</v>
+      </c>
+      <c r="T187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C188" s="4">
         <v>3</v>
       </c>
@@ -16760,8 +18033,14 @@
       <c r="P188">
         <v>7120</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S188">
+        <v>4.6515000000000004</v>
+      </c>
+      <c r="T188">
+        <v>8.6990999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C189" s="4">
         <v>4</v>
       </c>
@@ -16799,8 +18078,14 @@
       <c r="P189">
         <v>1692</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S189">
+        <v>4.5616000000000003</v>
+      </c>
+      <c r="T189">
+        <v>6.0887000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="C190" s="4">
         <v>5</v>
@@ -16839,8 +18124,14 @@
       <c r="P190">
         <v>78</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S190">
+        <v>4.0721999999999996</v>
+      </c>
+      <c r="T190">
+        <v>4.9794</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="C191" s="4">
         <v>6</v>
@@ -16880,7 +18171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="C192" s="4">
         <v>7</v>
@@ -17332,10 +18623,10 @@
         <v>5</v>
       </c>
       <c r="C254" s="10">
-        <v>9.5601000000000003</v>
+        <v>8.5601000000000003</v>
       </c>
       <c r="D254" s="8">
-        <v>19.062380000000001</v>
+        <v>18.062380000000001</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -17343,10 +18634,10 @@
         <v>10</v>
       </c>
       <c r="C255" s="10">
-        <v>12.594900000000001</v>
+        <v>11.594900000000001</v>
       </c>
       <c r="D255" s="10">
-        <v>25.898</v>
+        <v>24.898</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -17354,10 +18645,10 @@
         <v>15</v>
       </c>
       <c r="C256" s="10">
-        <v>14.456</v>
+        <v>13.456</v>
       </c>
       <c r="D256" s="10">
-        <v>30.771999999999998</v>
+        <v>29.771999999999998</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -17382,10 +18673,10 @@
         <v>5</v>
       </c>
       <c r="C270" s="10">
-        <v>6.3395999999999999</v>
+        <v>5.3395999999999999</v>
       </c>
       <c r="D270" s="10">
-        <v>6.726</v>
+        <v>5.726</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
@@ -17393,10 +18684,10 @@
         <v>10</v>
       </c>
       <c r="C271" s="10">
-        <v>8.0311000000000003</v>
+        <v>7.0311000000000003</v>
       </c>
       <c r="D271" s="10">
-        <v>8.8480000000000008</v>
+        <v>7.8479999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
@@ -17404,10 +18695,10 @@
         <v>15</v>
       </c>
       <c r="C272" s="10">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="D272" s="10">
-        <v>10.353</v>
+        <v>9.3529999999999998</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
@@ -17437,10 +18728,10 @@
         <v>5</v>
       </c>
       <c r="C288" s="9">
-        <v>12.54</v>
+        <v>11.54</v>
       </c>
       <c r="D288" s="9">
-        <v>25.329000000000001</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -17448,10 +18739,10 @@
         <v>10</v>
       </c>
       <c r="C289" s="9">
-        <v>18.009</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D289" s="9">
-        <v>40.061</v>
+        <v>39.06</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -17459,10 +18750,10 @@
         <v>15</v>
       </c>
       <c r="C290" s="9">
-        <v>22.3459</v>
+        <v>21.35</v>
       </c>
       <c r="D290" s="9">
-        <v>55.793999999999997</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
@@ -17486,33 +18777,33 @@
       <c r="B304">
         <v>5</v>
       </c>
-      <c r="C304" s="9">
-        <v>9.0869</v>
-      </c>
-      <c r="D304" s="9">
-        <v>10.1349</v>
+      <c r="C304" s="10">
+        <v>8.0869</v>
+      </c>
+      <c r="D304" s="10">
+        <v>9.1349</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305">
         <v>10</v>
       </c>
-      <c r="C305" s="9">
-        <v>12.6769</v>
-      </c>
-      <c r="D305" s="9">
-        <v>13.833</v>
+      <c r="C305" s="10">
+        <v>11.6769</v>
+      </c>
+      <c r="D305" s="10">
+        <v>12.833</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>15</v>
       </c>
-      <c r="C306" s="9">
-        <v>15.588699999999999</v>
-      </c>
-      <c r="D306" s="9">
-        <v>16.944299999999998</v>
+      <c r="C306" s="10">
+        <v>14.588699999999999</v>
+      </c>
+      <c r="D306" s="10">
+        <v>15.9443</v>
       </c>
     </row>
   </sheetData>
